--- a/customer_feedback_with_sentiment_and_aspects.xlsx
+++ b/customer_feedback_with_sentiment_and_aspects.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>battery, battery life</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,11 +494,7 @@
           <t>battery</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> battery life</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -527,12 +523,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> material</t>
+          <t>material</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> comfort</t>
+          <t>comfort</t>
         </is>
       </c>
     </row>
@@ -552,17 +548,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>features, price</t>
+          <t>price, features</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>features</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> price</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -583,12 +579,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -610,17 +606,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>high-demand, lag</t>
+          <t>performance, high-demand</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>high-demand</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> lag</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -695,17 +691,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>weight, comfort</t>
+          <t>comfort, design</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>comfort</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> comfort</t>
+          <t>design</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -726,22 +722,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>design, quality, material</t>
+          <t>quality, design, material</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>design</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> quality</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> material</t>
+          <t>material</t>
         </is>
       </c>
     </row>
@@ -759,8 +755,16 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>setup</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>setup</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -780,7 +784,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>battery, battery life</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -788,11 +792,7 @@
           <t>battery</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> battery life</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -828,8 +828,16 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>display</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>display</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -876,16 +884,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>price, performance, technology</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>price</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -930,7 +946,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>features, value, functionality</t>
+          <t>features, value</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -940,14 +956,10 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> value</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> functionality</t>
-        </is>
-      </c>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1017,8 +1029,16 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>usability</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>usability</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1036,8 +1056,16 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>display</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>display</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1084,15 +1112,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>price, interaction</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>price</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>interaction</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1111,7 +1143,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>quality, build quality, comfort</t>
+          <t>quality, comfort, build quality</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1121,12 +1153,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> build quality</t>
+          <t>comfort</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> comfort</t>
+          <t>build quality</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1207,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> size</t>
+          <t>size</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1250,7 +1282,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>technology, navigation, eye-tracking</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1258,16 +1290,8 @@
           <t>technology</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> navigation</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> eye-tracking</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1285,7 +1309,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>battery, battery life</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1293,11 +1317,7 @@
           <t>battery</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> battery life</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1314,9 +1334,21 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>setup, ease of use</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>setup</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ease of use</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1333,8 +1365,16 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>interaction</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>interaction</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
     </row>
@@ -1381,17 +1421,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>weight, comfort</t>
+          <t>comfort, design</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>comfort</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> comfort</t>
+          <t>design</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1410,8 +1450,16 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>display</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>display</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
     </row>
@@ -1426,7 +1474,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1453,7 +1501,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1485,19 +1533,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>lag, performance</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>lag</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> performance</t>
-        </is>
-      </c>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1514,8 +1558,16 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>customer service</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>customer service</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
     </row>
@@ -1562,17 +1614,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>functionality, price</t>
+          <t>price, features</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>functionality</t>
+          <t>price</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> price</t>
+          <t>features</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1593,24 +1645,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>weight, design, comfort</t>
+          <t>design, comfort</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>design</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> design</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> comfort</t>
-        </is>
-      </c>
+          <t>comfort</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1626,8 +1674,16 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
     </row>
@@ -1647,7 +1703,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>battery, battery life</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1655,11 +1711,7 @@
           <t>battery</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> battery life</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -1676,8 +1728,16 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>compatibility</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>compatibility</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
     </row>
@@ -1697,17 +1757,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>features, price</t>
+          <t>price, features</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>features</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> price</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1753,8 +1813,16 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>setup</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>setup</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
     </row>
@@ -1801,7 +1869,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>features, look, eye-tracking</t>
+          <t>features, look, technology</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1811,12 +1879,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> look</t>
+          <t>look</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> eye-tracking</t>
+          <t>technology</t>
         </is>
       </c>
     </row>
@@ -1863,15 +1931,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>price, visuals</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>price</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>visuals</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1890,12 +1962,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>functionality</t>
+          <t>features</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>functionality</t>
+          <t>features</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -1915,9 +1987,21 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>usability, performance</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>usability</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -1936,7 +2020,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>quality, build quality</t>
+          <t>quality, build quality, price</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1946,10 +2030,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> build quality</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>build quality</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1977,7 +2065,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> productivity</t>
+          <t>productivity</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2015,9 +2103,21 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>performance, technology</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2034,9 +2134,21 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ease of use, usability</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ease of use</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>usability</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -2109,17 +2221,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>usability, design</t>
+          <t>ease of use, design</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>usability</t>
+          <t>ease of use</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> design</t>
+          <t>design</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2140,7 +2252,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>battery, battery life</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2148,11 +2260,7 @@
           <t>battery</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> battery life</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2169,8 +2277,16 @@
           <t>Neutral</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>setup</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>setup</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
     </row>
@@ -2246,7 +2362,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> price</t>
+          <t>price</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2305,17 +2421,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>weight, comfort</t>
+          <t>comfort, design</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>comfort</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> comfort</t>
+          <t>design</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2336,12 +2452,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -2361,8 +2477,16 @@
           <t>Neutral</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>visuals</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>visuals</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
     </row>
@@ -2407,9 +2531,21 @@
           <t>Neutral</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>hardware, technology</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>hardware</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -2428,12 +2564,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>eye-tracking</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>eye-tracking</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -2453,8 +2589,16 @@
           <t>Neutral</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
     </row>
@@ -2472,8 +2616,16 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>customer service</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>customer service</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
     </row>
@@ -2530,7 +2682,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> build quality</t>
+          <t>build quality</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>

--- a/customer_feedback_with_sentiment_and_aspects.xlsx
+++ b/customer_feedback_with_sentiment_and_aspects.xlsx
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
